--- a/evaluation/results/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7415730337078652</v>
+        <v>0.7443820224719101</v>
       </c>
       <c r="C2">
-        <v>0.910828025477707</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="D2">
-        <v>0.5355805243445693</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="E2">
-        <v>0.6745283018867925</v>
+        <v>0.6784452296819788</v>
       </c>
       <c r="F2">
-        <v>0.5836734693877551</v>
+        <v>0.587515299877601</v>
       </c>
       <c r="G2">
-        <v>0.5442037470725996</v>
+        <v>0.5479692645444566</v>
       </c>
       <c r="H2">
-        <v>0.7415730337078651</v>
+        <v>0.7443820224719101</v>
       </c>
       <c r="I2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L2">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6710875331564987</v>
+        <v>0.6733067729083665</v>
       </c>
       <c r="C2">
-        <v>0.947565543071161</v>
+        <v>0.949438202247191</v>
       </c>
       <c r="D2">
-        <v>0.7857142857142857</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.910828025477707</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="C3">
-        <v>0.5355805243445693</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="D3">
-        <v>0.6745283018867925</v>
+        <v>0.6784452296819788</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7415730337078652</v>
+        <v>0.7443820224719101</v>
       </c>
       <c r="C4">
-        <v>0.7415730337078652</v>
+        <v>0.7443820224719101</v>
       </c>
       <c r="D4">
-        <v>0.7415730337078652</v>
+        <v>0.7443820224719101</v>
       </c>
       <c r="E4">
-        <v>0.7415730337078652</v>
+        <v>0.7443820224719101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7909577793171029</v>
+        <v>0.7937962435970404</v>
       </c>
       <c r="C5">
-        <v>0.7415730337078652</v>
+        <v>0.7443820224719101</v>
       </c>
       <c r="D5">
-        <v>0.730121293800539</v>
+        <v>0.7331620087803834</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7909577793171029</v>
+        <v>0.7937962435970404</v>
       </c>
       <c r="C6">
-        <v>0.7415730337078652</v>
+        <v>0.7443820224719101</v>
       </c>
       <c r="D6">
-        <v>0.730121293800539</v>
+        <v>0.7331620087803833</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7443820224719101</v>
+        <v>0.7265917602996255</v>
       </c>
       <c r="C2">
-        <v>0.9142857142857143</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D2">
-        <v>0.5393258426966292</v>
+        <v>0.4737827715355805</v>
       </c>
       <c r="E2">
-        <v>0.6784452296819788</v>
+        <v>0.6340852130325815</v>
       </c>
       <c r="F2">
-        <v>0.587515299877601</v>
+        <v>0.5270833333333333</v>
       </c>
       <c r="G2">
-        <v>0.5479692645444566</v>
+        <v>0.4831790803584545</v>
       </c>
       <c r="H2">
-        <v>0.7443820224719101</v>
+        <v>0.7265917602996254</v>
       </c>
       <c r="I2">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="L2">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6733067729083665</v>
+        <v>0.650497512437811</v>
       </c>
       <c r="C2">
-        <v>0.949438202247191</v>
+        <v>0.9794007490636704</v>
       </c>
       <c r="D2">
-        <v>0.7878787878787878</v>
+        <v>0.7817638266068759</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.9142857142857143</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="C3">
-        <v>0.5393258426966292</v>
+        <v>0.4737827715355805</v>
       </c>
       <c r="D3">
-        <v>0.6784452296819788</v>
+        <v>0.6340852130325815</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7443820224719101</v>
+        <v>0.7265917602996255</v>
       </c>
       <c r="C4">
-        <v>0.7443820224719101</v>
+        <v>0.7265917602996255</v>
       </c>
       <c r="D4">
-        <v>0.7443820224719101</v>
+        <v>0.7265917602996255</v>
       </c>
       <c r="E4">
-        <v>0.7443820224719101</v>
+        <v>0.7265917602996255</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7937962435970404</v>
+        <v>0.8044154228855722</v>
       </c>
       <c r="C5">
-        <v>0.7443820224719101</v>
+        <v>0.7265917602996255</v>
       </c>
       <c r="D5">
-        <v>0.7331620087803834</v>
+        <v>0.7079245198197287</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7937962435970404</v>
+        <v>0.8044154228855722</v>
       </c>
       <c r="C6">
-        <v>0.7443820224719101</v>
+        <v>0.7265917602996255</v>
       </c>
       <c r="D6">
-        <v>0.7331620087803833</v>
+        <v>0.7079245198197286</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C3">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.4831790803584545</v>
       </c>
       <c r="H2">
-        <v>0.7265917602996254</v>
+        <v>0.8152975914937788</v>
       </c>
       <c r="I2">
         <v>253</v>

--- a/evaluation/results/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7265917602996255</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="C2">
-        <v>0.9583333333333334</v>
+        <v>0.5746864310148233</v>
       </c>
       <c r="D2">
-        <v>0.4737827715355805</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="E2">
-        <v>0.6340852130325815</v>
+        <v>0.7143869596031184</v>
       </c>
       <c r="F2">
-        <v>0.5270833333333333</v>
+        <v>0.8363757052771325</v>
       </c>
       <c r="G2">
-        <v>0.4831790803584545</v>
+        <v>0.921065579531876</v>
       </c>
       <c r="H2">
-        <v>0.8152975914937788</v>
+        <v>0.7968410273674761</v>
       </c>
       <c r="I2">
-        <v>253</v>
+        <v>504</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>373</v>
       </c>
       <c r="K2">
-        <v>523</v>
+        <v>161</v>
       </c>
       <c r="L2">
-        <v>281</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.650497512437811</v>
+        <v>0.8429319371727748</v>
       </c>
       <c r="C2">
-        <v>0.9794007490636704</v>
+        <v>0.301498127340824</v>
       </c>
       <c r="D2">
-        <v>0.7817638266068759</v>
+        <v>0.4441379310344827</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.9583333333333334</v>
+        <v>0.5746864310148233</v>
       </c>
       <c r="C3">
-        <v>0.4737827715355805</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="D3">
-        <v>0.6340852130325815</v>
+        <v>0.7143869596031184</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7265917602996255</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="C4">
-        <v>0.7265917602996255</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D4">
-        <v>0.7265917602996255</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="E4">
-        <v>0.7265917602996255</v>
+        <v>0.6226591760299626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.8044154228855722</v>
+        <v>0.7088091840937991</v>
       </c>
       <c r="C5">
-        <v>0.7265917602996255</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D5">
-        <v>0.7079245198197287</v>
+        <v>0.5792624453188006</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.8044154228855722</v>
+        <v>0.7088091840937991</v>
       </c>
       <c r="C6">
-        <v>0.7265917602996255</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D6">
-        <v>0.7079245198197286</v>
+        <v>0.5792624453188006</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>523</v>
+        <v>161</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>281</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>253</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
